--- a/data/output/FV2410_FV2404/UTILMD/55002.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55002.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20054" uniqueCount="1191">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20075" uniqueCount="1191">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -3793,6 +3793,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U866" totalsRowShown="0">
+  <autoFilter ref="A1:U866"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4082,7 +4112,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U866"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -46479,5 +46512,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55002.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55002.xlsx
@@ -6785,7 +6785,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -7147,7 +7147,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -7293,7 +7293,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -7495,7 +7495,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -7803,7 +7803,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -8003,7 +8003,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -8377,7 +8377,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -8685,7 +8685,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -8885,7 +8885,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -9103,7 +9103,7 @@
         <v>1078</v>
       </c>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -9323,7 +9323,7 @@
         <v>1079</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -9543,7 +9543,7 @@
         <v>1080</v>
       </c>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -9763,7 +9763,7 @@
         <v>1081</v>
       </c>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -10091,7 +10091,7 @@
         <v>1082</v>
       </c>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -10311,7 +10311,7 @@
         <v>1083</v>
       </c>
       <c r="L69" s="4"/>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -10533,7 +10533,7 @@
       </c>
       <c r="K73" s="2"/>
       <c r="L73" s="4"/>
-      <c r="M73" s="2" t="s">
+      <c r="M73" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -10689,7 +10689,7 @@
         <v>1085</v>
       </c>
       <c r="L76" s="4"/>
-      <c r="M76" s="2" t="s">
+      <c r="M76" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N76" s="2" t="s">
@@ -10893,7 +10893,7 @@
         <v>1087</v>
       </c>
       <c r="L80" s="4"/>
-      <c r="M80" s="2" t="s">
+      <c r="M80" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N80" s="2" t="s">
@@ -11097,7 +11097,7 @@
         <v>1089</v>
       </c>
       <c r="L84" s="4"/>
-      <c r="M84" s="2" t="s">
+      <c r="M84" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N84" s="2" t="s">
@@ -11301,7 +11301,7 @@
         <v>1091</v>
       </c>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -11505,7 +11505,7 @@
         <v>1093</v>
       </c>
       <c r="L92" s="4"/>
-      <c r="M92" s="2" t="s">
+      <c r="M92" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N92" s="2" t="s">
@@ -11707,7 +11707,7 @@
       </c>
       <c r="K96" s="2"/>
       <c r="L96" s="4"/>
-      <c r="M96" s="2" t="s">
+      <c r="M96" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N96" s="2" t="s">
@@ -11903,7 +11903,7 @@
       </c>
       <c r="K100" s="2"/>
       <c r="L100" s="4"/>
-      <c r="M100" s="2" t="s">
+      <c r="M100" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N100" s="2" t="s">
@@ -12099,7 +12099,7 @@
       </c>
       <c r="K104" s="2"/>
       <c r="L104" s="4"/>
-      <c r="M104" s="2" t="s">
+      <c r="M104" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N104" s="2" t="s">
@@ -12309,7 +12309,7 @@
         <v>1096</v>
       </c>
       <c r="L108" s="4"/>
-      <c r="M108" s="2" t="s">
+      <c r="M108" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N108" s="2" t="s">
@@ -12581,7 +12581,7 @@
       </c>
       <c r="K113" s="2"/>
       <c r="L113" s="4"/>
-      <c r="M113" s="2" t="s">
+      <c r="M113" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N113" s="2" t="s">
@@ -12853,7 +12853,7 @@
         <v>1097</v>
       </c>
       <c r="L118" s="4"/>
-      <c r="M118" s="2" t="s">
+      <c r="M118" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N118" s="2" t="s">
@@ -13071,7 +13071,7 @@
       </c>
       <c r="K122" s="2"/>
       <c r="L122" s="4"/>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -13285,7 +13285,7 @@
         <v>1098</v>
       </c>
       <c r="L126" s="4"/>
-      <c r="M126" s="2" t="s">
+      <c r="M126" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N126" s="2" t="s">
@@ -13755,7 +13755,7 @@
         <v>1101</v>
       </c>
       <c r="L135" s="4"/>
-      <c r="M135" s="2" t="s">
+      <c r="M135" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N135" s="2" t="s">
@@ -13903,7 +13903,7 @@
       </c>
       <c r="K138" s="2"/>
       <c r="L138" s="4"/>
-      <c r="M138" s="2" t="s">
+      <c r="M138" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N138" s="2" t="s">
@@ -14229,7 +14229,7 @@
         <v>1103</v>
       </c>
       <c r="L144" s="4"/>
-      <c r="M144" s="2" t="s">
+      <c r="M144" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N144" s="2" t="s">
@@ -14423,54 +14423,54 @@
       </c>
     </row>
     <row r="148" spans="1:22">
-      <c r="A148" s="5" t="s">
+      <c r="A148" s="2" t="s">
         <v>1325</v>
       </c>
-      <c r="B148" s="5" t="s">
+      <c r="B148" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C148" s="5" t="s">
+      <c r="C148" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D148" s="5" t="s">
+      <c r="D148" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E148" s="5"/>
-      <c r="F148" s="5" t="s">
+      <c r="E148" s="2"/>
+      <c r="F148" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="G148" s="5"/>
-      <c r="H148" s="5"/>
-      <c r="I148" s="5"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="2"/>
       <c r="J148" s="6" t="s">
         <v>976</v>
       </c>
-      <c r="K148" s="5" t="s">
+      <c r="K148" s="2" t="s">
         <v>1104</v>
       </c>
       <c r="L148" s="7" t="s">
         <v>1191</v>
       </c>
-      <c r="M148" s="5" t="s">
+      <c r="M148" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="N148" s="5" t="s">
+      <c r="N148" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="O148" s="5" t="s">
+      <c r="O148" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="P148" s="5"/>
-      <c r="Q148" s="5" t="s">
+      <c r="P148" s="2"/>
+      <c r="Q148" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="R148" s="5"/>
-      <c r="S148" s="5"/>
-      <c r="T148" s="5"/>
+      <c r="R148" s="2"/>
+      <c r="S148" s="2"/>
+      <c r="T148" s="2"/>
       <c r="U148" s="6" t="s">
         <v>1192</v>
       </c>
-      <c r="V148" s="5" t="s">
+      <c r="V148" s="2" t="s">
         <v>1104</v>
       </c>
     </row>
@@ -14671,7 +14671,7 @@
         <v>1106</v>
       </c>
       <c r="L152" s="4"/>
-      <c r="M152" s="2" t="s">
+      <c r="M152" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N152" s="2" t="s">
@@ -14833,7 +14833,7 @@
         <v>1107</v>
       </c>
       <c r="L155" s="4"/>
-      <c r="M155" s="2" t="s">
+      <c r="M155" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N155" s="2" t="s">
@@ -14981,7 +14981,7 @@
       </c>
       <c r="K158" s="2"/>
       <c r="L158" s="4"/>
-      <c r="M158" s="2" t="s">
+      <c r="M158" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N158" s="2" t="s">
@@ -15139,7 +15139,7 @@
       </c>
       <c r="K161" s="2"/>
       <c r="L161" s="4"/>
-      <c r="M161" s="2" t="s">
+      <c r="M161" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N161" s="2" t="s">
@@ -15393,7 +15393,7 @@
       </c>
       <c r="K166" s="2"/>
       <c r="L166" s="4"/>
-      <c r="M166" s="2" t="s">
+      <c r="M166" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N166" s="2" t="s">
@@ -15539,7 +15539,7 @@
       </c>
       <c r="K169" s="2"/>
       <c r="L169" s="4"/>
-      <c r="M169" s="2" t="s">
+      <c r="M169" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N169" s="2" t="s">
@@ -15861,7 +15861,7 @@
         <v>1108</v>
       </c>
       <c r="L175" s="4"/>
-      <c r="M175" s="2" t="s">
+      <c r="M175" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N175" s="2" t="s">
@@ -16009,7 +16009,7 @@
       </c>
       <c r="K178" s="2"/>
       <c r="L178" s="4"/>
-      <c r="M178" s="2" t="s">
+      <c r="M178" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N178" s="2" t="s">
@@ -16171,7 +16171,7 @@
       </c>
       <c r="K181" s="2"/>
       <c r="L181" s="4"/>
-      <c r="M181" s="2" t="s">
+      <c r="M181" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N181" s="2" t="s">
@@ -16383,7 +16383,7 @@
       </c>
       <c r="K185" s="2"/>
       <c r="L185" s="4"/>
-      <c r="M185" s="2" t="s">
+      <c r="M185" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N185" s="2" t="s">
@@ -16529,7 +16529,7 @@
       </c>
       <c r="K188" s="2"/>
       <c r="L188" s="4"/>
-      <c r="M188" s="2" t="s">
+      <c r="M188" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N188" s="2" t="s">
@@ -16685,7 +16685,7 @@
         <v>1108</v>
       </c>
       <c r="L191" s="4"/>
-      <c r="M191" s="2" t="s">
+      <c r="M191" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N191" s="2" t="s">
@@ -16833,7 +16833,7 @@
       </c>
       <c r="K194" s="2"/>
       <c r="L194" s="4"/>
-      <c r="M194" s="2" t="s">
+      <c r="M194" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N194" s="2" t="s">
@@ -16995,7 +16995,7 @@
       </c>
       <c r="K197" s="2"/>
       <c r="L197" s="4"/>
-      <c r="M197" s="2" t="s">
+      <c r="M197" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N197" s="2" t="s">
@@ -17213,7 +17213,7 @@
         <v>1110</v>
       </c>
       <c r="L201" s="4"/>
-      <c r="M201" s="2" t="s">
+      <c r="M201" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N201" s="2" t="s">
@@ -17411,7 +17411,7 @@
       </c>
       <c r="K205" s="2"/>
       <c r="L205" s="4"/>
-      <c r="M205" s="2" t="s">
+      <c r="M205" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N205" s="2" t="s">
@@ -17765,7 +17765,7 @@
       </c>
       <c r="K212" s="2"/>
       <c r="L212" s="4"/>
-      <c r="M212" s="2" t="s">
+      <c r="M212" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N212" s="2" t="s">
@@ -17909,7 +17909,7 @@
         <v>1111</v>
       </c>
       <c r="L215" s="4"/>
-      <c r="M215" s="2" t="s">
+      <c r="M215" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N215" s="2" t="s">
@@ -18057,7 +18057,7 @@
       </c>
       <c r="K218" s="2"/>
       <c r="L218" s="4"/>
-      <c r="M218" s="2" t="s">
+      <c r="M218" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N218" s="2" t="s">
@@ -18217,7 +18217,7 @@
         <v>1112</v>
       </c>
       <c r="L221" s="4"/>
-      <c r="M221" s="2" t="s">
+      <c r="M221" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N221" s="2" t="s">
@@ -18591,7 +18591,7 @@
         <v>1115</v>
       </c>
       <c r="L228" s="4"/>
-      <c r="M228" s="2" t="s">
+      <c r="M228" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N228" s="2" t="s">
@@ -18851,7 +18851,7 @@
       </c>
       <c r="K233" s="2"/>
       <c r="L233" s="4"/>
-      <c r="M233" s="2" t="s">
+      <c r="M233" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N233" s="2" t="s">
@@ -19051,7 +19051,7 @@
       </c>
       <c r="K237" s="2"/>
       <c r="L237" s="4"/>
-      <c r="M237" s="2" t="s">
+      <c r="M237" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N237" s="2" t="s">
@@ -19197,7 +19197,7 @@
       </c>
       <c r="K240" s="2"/>
       <c r="L240" s="4"/>
-      <c r="M240" s="2" t="s">
+      <c r="M240" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N240" s="2" t="s">
@@ -19357,7 +19357,7 @@
         <v>1117</v>
       </c>
       <c r="L243" s="4"/>
-      <c r="M243" s="2" t="s">
+      <c r="M243" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N243" s="2" t="s">
@@ -19791,7 +19791,7 @@
       </c>
       <c r="K251" s="2"/>
       <c r="L251" s="4"/>
-      <c r="M251" s="2" t="s">
+      <c r="M251" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N251" s="2" t="s">
@@ -19989,7 +19989,7 @@
         <v>1118</v>
       </c>
       <c r="L255" s="4"/>
-      <c r="M255" s="2" t="s">
+      <c r="M255" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N255" s="2" t="s">
@@ -20187,7 +20187,7 @@
       </c>
       <c r="K259" s="2"/>
       <c r="L259" s="4"/>
-      <c r="M259" s="2" t="s">
+      <c r="M259" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N259" s="2" t="s">
@@ -20385,7 +20385,7 @@
         <v>1119</v>
       </c>
       <c r="L263" s="4"/>
-      <c r="M263" s="2" t="s">
+      <c r="M263" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N263" s="2" t="s">
@@ -20693,7 +20693,7 @@
         <v>1120</v>
       </c>
       <c r="L269" s="4"/>
-      <c r="M269" s="2" t="s">
+      <c r="M269" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N269" s="2" t="s">
@@ -20995,7 +20995,7 @@
       </c>
       <c r="K275" s="2"/>
       <c r="L275" s="4"/>
-      <c r="M275" s="2" t="s">
+      <c r="M275" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N275" s="2" t="s">
@@ -21409,7 +21409,7 @@
         <v>1121</v>
       </c>
       <c r="L283" s="4"/>
-      <c r="M283" s="2" t="s">
+      <c r="M283" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N283" s="2" t="s">
@@ -21623,7 +21623,7 @@
       </c>
       <c r="K287" s="2"/>
       <c r="L287" s="4"/>
-      <c r="M287" s="2" t="s">
+      <c r="M287" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N287" s="2" t="s">
@@ -21977,7 +21977,7 @@
       </c>
       <c r="K294" s="2"/>
       <c r="L294" s="4"/>
-      <c r="M294" s="2" t="s">
+      <c r="M294" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N294" s="2" t="s">
@@ -22231,7 +22231,7 @@
       </c>
       <c r="K299" s="2"/>
       <c r="L299" s="4"/>
-      <c r="M299" s="2" t="s">
+      <c r="M299" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N299" s="2" t="s">
@@ -22433,7 +22433,7 @@
         <v>1123</v>
       </c>
       <c r="L303" s="4"/>
-      <c r="M303" s="2" t="s">
+      <c r="M303" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N303" s="2" t="s">
@@ -22591,7 +22591,7 @@
         <v>1124</v>
       </c>
       <c r="L306" s="4"/>
-      <c r="M306" s="2" t="s">
+      <c r="M306" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N306" s="2" t="s">
@@ -22899,7 +22899,7 @@
         <v>1125</v>
       </c>
       <c r="L312" s="4"/>
-      <c r="M312" s="2" t="s">
+      <c r="M312" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N312" s="2" t="s">
@@ -23163,7 +23163,7 @@
       </c>
       <c r="K317" s="2"/>
       <c r="L317" s="4"/>
-      <c r="M317" s="2" t="s">
+      <c r="M317" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N317" s="2" t="s">
@@ -23359,7 +23359,7 @@
       </c>
       <c r="K321" s="2"/>
       <c r="L321" s="4"/>
-      <c r="M321" s="2" t="s">
+      <c r="M321" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N321" s="2" t="s">
@@ -23505,7 +23505,7 @@
       </c>
       <c r="K324" s="2"/>
       <c r="L324" s="4"/>
-      <c r="M324" s="2" t="s">
+      <c r="M324" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N324" s="2" t="s">
@@ -23721,7 +23721,7 @@
       </c>
       <c r="K328" s="2"/>
       <c r="L328" s="4"/>
-      <c r="M328" s="2" t="s">
+      <c r="M328" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N328" s="2" t="s">
@@ -23941,7 +23941,7 @@
       </c>
       <c r="K332" s="2"/>
       <c r="L332" s="4"/>
-      <c r="M332" s="2" t="s">
+      <c r="M332" s="3" t="s">
         <v>92</v>
       </c>
       <c r="N332" s="2" t="s">
@@ -24157,7 +24157,7 @@
       </c>
       <c r="K336" s="2"/>
       <c r="L336" s="4"/>
-      <c r="M336" s="2" t="s">
+      <c r="M336" s="3" t="s">
         <v>93</v>
       </c>
       <c r="N336" s="2" t="s">
@@ -24369,7 +24369,7 @@
       </c>
       <c r="K340" s="2"/>
       <c r="L340" s="4"/>
-      <c r="M340" s="2" t="s">
+      <c r="M340" s="3" t="s">
         <v>94</v>
       </c>
       <c r="N340" s="2" t="s">
@@ -24571,7 +24571,7 @@
         <v>1127</v>
       </c>
       <c r="L344" s="4"/>
-      <c r="M344" s="2" t="s">
+      <c r="M344" s="3" t="s">
         <v>95</v>
       </c>
       <c r="N344" s="2" t="s">
@@ -24719,7 +24719,7 @@
       </c>
       <c r="K347" s="2"/>
       <c r="L347" s="4"/>
-      <c r="M347" s="2" t="s">
+      <c r="M347" s="3" t="s">
         <v>96</v>
       </c>
       <c r="N347" s="2" t="s">
@@ -24995,7 +24995,7 @@
         <v>1130</v>
       </c>
       <c r="L352" s="4"/>
-      <c r="M352" s="2" t="s">
+      <c r="M352" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N352" s="2" t="s">
@@ -25255,7 +25255,7 @@
       </c>
       <c r="K357" s="2"/>
       <c r="L357" s="4"/>
-      <c r="M357" s="2" t="s">
+      <c r="M357" s="3" t="s">
         <v>98</v>
       </c>
       <c r="N357" s="2" t="s">
@@ -25513,7 +25513,7 @@
       </c>
       <c r="K362" s="2"/>
       <c r="L362" s="4"/>
-      <c r="M362" s="2" t="s">
+      <c r="M362" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N362" s="2" t="s">
@@ -25881,7 +25881,7 @@
         <v>1134</v>
       </c>
       <c r="L369" s="4"/>
-      <c r="M369" s="2" t="s">
+      <c r="M369" s="3" t="s">
         <v>100</v>
       </c>
       <c r="N369" s="2" t="s">
@@ -26081,7 +26081,7 @@
         <v>1134</v>
       </c>
       <c r="L373" s="4"/>
-      <c r="M373" s="2" t="s">
+      <c r="M373" s="3" t="s">
         <v>101</v>
       </c>
       <c r="N373" s="2" t="s">
@@ -26343,7 +26343,7 @@
         <v>1136</v>
       </c>
       <c r="L378" s="4"/>
-      <c r="M378" s="2" t="s">
+      <c r="M378" s="3" t="s">
         <v>102</v>
       </c>
       <c r="N378" s="2" t="s">
@@ -26543,7 +26543,7 @@
         <v>1136</v>
       </c>
       <c r="L382" s="4"/>
-      <c r="M382" s="2" t="s">
+      <c r="M382" s="3" t="s">
         <v>103</v>
       </c>
       <c r="N382" s="2" t="s">
@@ -26741,7 +26741,7 @@
       </c>
       <c r="K386" s="2"/>
       <c r="L386" s="4"/>
-      <c r="M386" s="2" t="s">
+      <c r="M386" s="3" t="s">
         <v>104</v>
       </c>
       <c r="N386" s="2" t="s">
@@ -26887,7 +26887,7 @@
       </c>
       <c r="K389" s="2"/>
       <c r="L389" s="4"/>
-      <c r="M389" s="2" t="s">
+      <c r="M389" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N389" s="2" t="s">
@@ -27049,7 +27049,7 @@
       </c>
       <c r="K392" s="2"/>
       <c r="L392" s="4"/>
-      <c r="M392" s="2" t="s">
+      <c r="M392" s="3" t="s">
         <v>105</v>
       </c>
       <c r="N392" s="2" t="s">
@@ -27267,7 +27267,7 @@
         <v>1138</v>
       </c>
       <c r="L396" s="4"/>
-      <c r="M396" s="2" t="s">
+      <c r="M396" s="3" t="s">
         <v>106</v>
       </c>
       <c r="N396" s="2" t="s">
@@ -27679,7 +27679,7 @@
         <v>1139</v>
       </c>
       <c r="L404" s="4"/>
-      <c r="M404" s="2" t="s">
+      <c r="M404" s="3" t="s">
         <v>102</v>
       </c>
       <c r="N404" s="2" t="s">
@@ -27879,7 +27879,7 @@
         <v>1140</v>
       </c>
       <c r="L408" s="4"/>
-      <c r="M408" s="2" t="s">
+      <c r="M408" s="3" t="s">
         <v>103</v>
       </c>
       <c r="N408" s="2" t="s">
@@ -28077,7 +28077,7 @@
       </c>
       <c r="K412" s="2"/>
       <c r="L412" s="4"/>
-      <c r="M412" s="2" t="s">
+      <c r="M412" s="3" t="s">
         <v>107</v>
       </c>
       <c r="N412" s="2" t="s">
@@ -28223,7 +28223,7 @@
       </c>
       <c r="K415" s="2"/>
       <c r="L415" s="4"/>
-      <c r="M415" s="2" t="s">
+      <c r="M415" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N415" s="2" t="s">
@@ -28541,7 +28541,7 @@
         <v>1121</v>
       </c>
       <c r="L421" s="4"/>
-      <c r="M421" s="2" t="s">
+      <c r="M421" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N421" s="2" t="s">
@@ -28689,7 +28689,7 @@
       </c>
       <c r="K424" s="2"/>
       <c r="L424" s="4"/>
-      <c r="M424" s="2" t="s">
+      <c r="M424" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N424" s="2" t="s">
@@ -28851,7 +28851,7 @@
       </c>
       <c r="K427" s="2"/>
       <c r="L427" s="4"/>
-      <c r="M427" s="2" t="s">
+      <c r="M427" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N427" s="2" t="s">
@@ -29063,7 +29063,7 @@
       </c>
       <c r="K431" s="2"/>
       <c r="L431" s="4"/>
-      <c r="M431" s="2" t="s">
+      <c r="M431" s="3" t="s">
         <v>109</v>
       </c>
       <c r="N431" s="2" t="s">
@@ -29259,7 +29259,7 @@
       </c>
       <c r="K435" s="2"/>
       <c r="L435" s="4"/>
-      <c r="M435" s="2" t="s">
+      <c r="M435" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N435" s="2" t="s">
@@ -29403,7 +29403,7 @@
         <v>1141</v>
       </c>
       <c r="L438" s="4"/>
-      <c r="M438" s="2" t="s">
+      <c r="M438" s="3" t="s">
         <v>110</v>
       </c>
       <c r="N438" s="2" t="s">
@@ -29551,7 +29551,7 @@
       </c>
       <c r="K441" s="2"/>
       <c r="L441" s="4"/>
-      <c r="M441" s="2" t="s">
+      <c r="M441" s="3" t="s">
         <v>111</v>
       </c>
       <c r="N441" s="2" t="s">
@@ -29705,7 +29705,7 @@
       </c>
       <c r="K444" s="2"/>
       <c r="L444" s="4"/>
-      <c r="M444" s="2" t="s">
+      <c r="M444" s="3" t="s">
         <v>112</v>
       </c>
       <c r="N444" s="2" t="s">
@@ -29851,7 +29851,7 @@
       </c>
       <c r="K447" s="2"/>
       <c r="L447" s="4"/>
-      <c r="M447" s="2" t="s">
+      <c r="M447" s="3" t="s">
         <v>113</v>
       </c>
       <c r="N447" s="2" t="s">
@@ -30171,7 +30171,7 @@
       </c>
       <c r="K453" s="2"/>
       <c r="L453" s="4"/>
-      <c r="M453" s="2" t="s">
+      <c r="M453" s="3" t="s">
         <v>114</v>
       </c>
       <c r="N453" s="2" t="s">
@@ -30331,7 +30331,7 @@
         <v>1142</v>
       </c>
       <c r="L456" s="4"/>
-      <c r="M456" s="2" t="s">
+      <c r="M456" s="3" t="s">
         <v>115</v>
       </c>
       <c r="N456" s="2" t="s">
@@ -30547,7 +30547,7 @@
         <v>1143</v>
       </c>
       <c r="L460" s="4"/>
-      <c r="M460" s="2" t="s">
+      <c r="M460" s="3" t="s">
         <v>116</v>
       </c>
       <c r="N460" s="2" t="s">
@@ -30759,7 +30759,7 @@
         <v>1144</v>
       </c>
       <c r="L464" s="4"/>
-      <c r="M464" s="2" t="s">
+      <c r="M464" s="3" t="s">
         <v>117</v>
       </c>
       <c r="N464" s="2" t="s">
@@ -30907,7 +30907,7 @@
       </c>
       <c r="K467" s="2"/>
       <c r="L467" s="4"/>
-      <c r="M467" s="2" t="s">
+      <c r="M467" s="3" t="s">
         <v>118</v>
       </c>
       <c r="N467" s="2" t="s">
@@ -31071,7 +31071,7 @@
         <v>1145</v>
       </c>
       <c r="L470" s="4"/>
-      <c r="M470" s="2" t="s">
+      <c r="M470" s="3" t="s">
         <v>119</v>
       </c>
       <c r="N470" s="2" t="s">
@@ -31237,7 +31237,7 @@
         <v>1146</v>
       </c>
       <c r="L473" s="4"/>
-      <c r="M473" s="2" t="s">
+      <c r="M473" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N473" s="2" t="s">
@@ -31403,7 +31403,7 @@
         <v>1147</v>
       </c>
       <c r="L476" s="4"/>
-      <c r="M476" s="2" t="s">
+      <c r="M476" s="3" t="s">
         <v>120</v>
       </c>
       <c r="N476" s="2" t="s">
@@ -31569,7 +31569,7 @@
         <v>1148</v>
       </c>
       <c r="L479" s="4"/>
-      <c r="M479" s="2" t="s">
+      <c r="M479" s="3" t="s">
         <v>121</v>
       </c>
       <c r="N479" s="2" t="s">
@@ -31731,7 +31731,7 @@
         <v>1149</v>
       </c>
       <c r="L482" s="4"/>
-      <c r="M482" s="2" t="s">
+      <c r="M482" s="3" t="s">
         <v>122</v>
       </c>
       <c r="N482" s="2" t="s">
@@ -31989,7 +31989,7 @@
         <v>1150</v>
       </c>
       <c r="L487" s="4"/>
-      <c r="M487" s="2" t="s">
+      <c r="M487" s="3" t="s">
         <v>123</v>
       </c>
       <c r="N487" s="2" t="s">
@@ -32247,7 +32247,7 @@
         <v>1150</v>
       </c>
       <c r="L492" s="4"/>
-      <c r="M492" s="2" t="s">
+      <c r="M492" s="3" t="s">
         <v>124</v>
       </c>
       <c r="N492" s="2" t="s">
@@ -32503,7 +32503,7 @@
       </c>
       <c r="K497" s="2"/>
       <c r="L497" s="4"/>
-      <c r="M497" s="2" t="s">
+      <c r="M497" s="3" t="s">
         <v>125</v>
       </c>
       <c r="N497" s="2" t="s">
@@ -32705,7 +32705,7 @@
         <v>1151</v>
       </c>
       <c r="L501" s="4"/>
-      <c r="M501" s="2" t="s">
+      <c r="M501" s="3" t="s">
         <v>113</v>
       </c>
       <c r="N501" s="2" t="s">
@@ -32975,7 +32975,7 @@
         <v>1142</v>
       </c>
       <c r="L506" s="4"/>
-      <c r="M506" s="2" t="s">
+      <c r="M506" s="3" t="s">
         <v>115</v>
       </c>
       <c r="N506" s="2" t="s">
@@ -33191,7 +33191,7 @@
         <v>1143</v>
       </c>
       <c r="L510" s="4"/>
-      <c r="M510" s="2" t="s">
+      <c r="M510" s="3" t="s">
         <v>116</v>
       </c>
       <c r="N510" s="2" t="s">
@@ -33407,7 +33407,7 @@
         <v>1150</v>
       </c>
       <c r="L514" s="4"/>
-      <c r="M514" s="2" t="s">
+      <c r="M514" s="3" t="s">
         <v>126</v>
       </c>
       <c r="N514" s="2" t="s">
@@ -33677,7 +33677,7 @@
         <v>1152</v>
       </c>
       <c r="L519" s="4"/>
-      <c r="M519" s="2" t="s">
+      <c r="M519" s="3" t="s">
         <v>127</v>
       </c>
       <c r="N519" s="2" t="s">
@@ -33839,7 +33839,7 @@
         <v>1153</v>
       </c>
       <c r="L522" s="4"/>
-      <c r="M522" s="2" t="s">
+      <c r="M522" s="3" t="s">
         <v>128</v>
       </c>
       <c r="N522" s="2" t="s">
@@ -34001,7 +34001,7 @@
         <v>1154</v>
       </c>
       <c r="L525" s="4"/>
-      <c r="M525" s="2" t="s">
+      <c r="M525" s="3" t="s">
         <v>129</v>
       </c>
       <c r="N525" s="2" t="s">
@@ -34267,7 +34267,7 @@
         <v>1155</v>
       </c>
       <c r="L530" s="4"/>
-      <c r="M530" s="2" t="s">
+      <c r="M530" s="3" t="s">
         <v>130</v>
       </c>
       <c r="N530" s="2" t="s">
@@ -34571,7 +34571,7 @@
         <v>1156</v>
       </c>
       <c r="L536" s="4"/>
-      <c r="M536" s="2" t="s">
+      <c r="M536" s="3" t="s">
         <v>131</v>
       </c>
       <c r="N536" s="2" t="s">
@@ -34719,7 +34719,7 @@
       </c>
       <c r="K539" s="2"/>
       <c r="L539" s="4"/>
-      <c r="M539" s="2" t="s">
+      <c r="M539" s="3" t="s">
         <v>132</v>
       </c>
       <c r="N539" s="2" t="s">
@@ -34877,7 +34877,7 @@
       </c>
       <c r="K542" s="2"/>
       <c r="L542" s="4"/>
-      <c r="M542" s="2" t="s">
+      <c r="M542" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N542" s="2" t="s">
@@ -35023,7 +35023,7 @@
       </c>
       <c r="K545" s="2"/>
       <c r="L545" s="4"/>
-      <c r="M545" s="2" t="s">
+      <c r="M545" s="3" t="s">
         <v>133</v>
       </c>
       <c r="N545" s="2" t="s">
@@ -35235,7 +35235,7 @@
       </c>
       <c r="K549" s="2"/>
       <c r="L549" s="4"/>
-      <c r="M549" s="2" t="s">
+      <c r="M549" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N549" s="2" t="s">
@@ -35381,7 +35381,7 @@
       </c>
       <c r="K552" s="2"/>
       <c r="L552" s="4"/>
-      <c r="M552" s="2" t="s">
+      <c r="M552" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N552" s="2" t="s">
@@ -35703,7 +35703,7 @@
         <v>1157</v>
       </c>
       <c r="L558" s="4"/>
-      <c r="M558" s="2" t="s">
+      <c r="M558" s="3" t="s">
         <v>134</v>
       </c>
       <c r="N558" s="2" t="s">
@@ -35851,7 +35851,7 @@
       </c>
       <c r="K561" s="2"/>
       <c r="L561" s="4"/>
-      <c r="M561" s="2" t="s">
+      <c r="M561" s="3" t="s">
         <v>132</v>
       </c>
       <c r="N561" s="2" t="s">
@@ -36013,7 +36013,7 @@
       </c>
       <c r="K564" s="2"/>
       <c r="L564" s="4"/>
-      <c r="M564" s="2" t="s">
+      <c r="M564" s="3" t="s">
         <v>134</v>
       </c>
       <c r="N564" s="2" t="s">
@@ -36225,7 +36225,7 @@
       </c>
       <c r="K568" s="2"/>
       <c r="L568" s="4"/>
-      <c r="M568" s="2" t="s">
+      <c r="M568" s="3" t="s">
         <v>109</v>
       </c>
       <c r="N568" s="2" t="s">
@@ -36475,7 +36475,7 @@
       </c>
       <c r="K573" s="2"/>
       <c r="L573" s="4"/>
-      <c r="M573" s="2" t="s">
+      <c r="M573" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N573" s="2" t="s">
@@ -36829,7 +36829,7 @@
       </c>
       <c r="K580" s="2"/>
       <c r="L580" s="4"/>
-      <c r="M580" s="2" t="s">
+      <c r="M580" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N580" s="2" t="s">
@@ -36973,7 +36973,7 @@
         <v>1158</v>
       </c>
       <c r="L583" s="4"/>
-      <c r="M583" s="2" t="s">
+      <c r="M583" s="3" t="s">
         <v>135</v>
       </c>
       <c r="N583" s="2" t="s">
@@ -37121,7 +37121,7 @@
       </c>
       <c r="K586" s="2"/>
       <c r="L586" s="4"/>
-      <c r="M586" s="2" t="s">
+      <c r="M586" s="3" t="s">
         <v>136</v>
       </c>
       <c r="N586" s="2" t="s">
@@ -37285,7 +37285,7 @@
         <v>1159</v>
       </c>
       <c r="L589" s="4"/>
-      <c r="M589" s="2" t="s">
+      <c r="M589" s="3" t="s">
         <v>137</v>
       </c>
       <c r="N589" s="2" t="s">
@@ -37441,7 +37441,7 @@
       </c>
       <c r="K592" s="2"/>
       <c r="L592" s="4"/>
-      <c r="M592" s="2" t="s">
+      <c r="M592" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N592" s="2" t="s">
@@ -37587,7 +37587,7 @@
       </c>
       <c r="K595" s="2"/>
       <c r="L595" s="4"/>
-      <c r="M595" s="2" t="s">
+      <c r="M595" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N595" s="2" t="s">
@@ -38023,7 +38023,7 @@
       </c>
       <c r="K603" s="2"/>
       <c r="L603" s="4"/>
-      <c r="M603" s="2" t="s">
+      <c r="M603" s="3" t="s">
         <v>138</v>
       </c>
       <c r="N603" s="2" t="s">
@@ -38177,7 +38177,7 @@
       </c>
       <c r="K606" s="2"/>
       <c r="L606" s="4"/>
-      <c r="M606" s="2" t="s">
+      <c r="M606" s="3" t="s">
         <v>139</v>
       </c>
       <c r="N606" s="2" t="s">
@@ -38587,7 +38587,7 @@
         <v>1160</v>
       </c>
       <c r="L614" s="4"/>
-      <c r="M614" s="2" t="s">
+      <c r="M614" s="3" t="s">
         <v>140</v>
       </c>
       <c r="N614" s="2" t="s">
@@ -38735,7 +38735,7 @@
       </c>
       <c r="K617" s="2"/>
       <c r="L617" s="4"/>
-      <c r="M617" s="2" t="s">
+      <c r="M617" s="3" t="s">
         <v>141</v>
       </c>
       <c r="N617" s="2" t="s">
@@ -38899,7 +38899,7 @@
         <v>1161</v>
       </c>
       <c r="L620" s="4"/>
-      <c r="M620" s="2" t="s">
+      <c r="M620" s="3" t="s">
         <v>142</v>
       </c>
       <c r="N620" s="2" t="s">
@@ -39055,7 +39055,7 @@
       </c>
       <c r="K623" s="2"/>
       <c r="L623" s="4"/>
-      <c r="M623" s="2" t="s">
+      <c r="M623" s="3" t="s">
         <v>143</v>
       </c>
       <c r="N623" s="2" t="s">
@@ -39907,7 +39907,7 @@
       </c>
       <c r="K639" s="2"/>
       <c r="L639" s="4"/>
-      <c r="M639" s="2" t="s">
+      <c r="M639" s="3" t="s">
         <v>144</v>
       </c>
       <c r="N639" s="2" t="s">
@@ -40067,7 +40067,7 @@
         <v>1163</v>
       </c>
       <c r="L642" s="4"/>
-      <c r="M642" s="2" t="s">
+      <c r="M642" s="3" t="s">
         <v>145</v>
       </c>
       <c r="N642" s="2" t="s">
@@ -40281,7 +40281,7 @@
       </c>
       <c r="K646" s="2"/>
       <c r="L646" s="4"/>
-      <c r="M646" s="2" t="s">
+      <c r="M646" s="3" t="s">
         <v>146</v>
       </c>
       <c r="N646" s="2" t="s">
@@ -40439,7 +40439,7 @@
       </c>
       <c r="K649" s="2"/>
       <c r="L649" s="4"/>
-      <c r="M649" s="2" t="s">
+      <c r="M649" s="3" t="s">
         <v>147</v>
       </c>
       <c r="N649" s="2" t="s">
@@ -40653,7 +40653,7 @@
         <v>1164</v>
       </c>
       <c r="L653" s="4"/>
-      <c r="M653" s="2" t="s">
+      <c r="M653" s="3" t="s">
         <v>148</v>
       </c>
       <c r="N653" s="2" t="s">
@@ -40957,7 +40957,7 @@
         <v>1165</v>
       </c>
       <c r="L659" s="4"/>
-      <c r="M659" s="2" t="s">
+      <c r="M659" s="3" t="s">
         <v>149</v>
       </c>
       <c r="N659" s="2" t="s">
@@ -41107,7 +41107,7 @@
         <v>1166</v>
       </c>
       <c r="L662" s="4"/>
-      <c r="M662" s="2" t="s">
+      <c r="M662" s="3" t="s">
         <v>150</v>
       </c>
       <c r="N662" s="2" t="s">
@@ -41325,7 +41325,7 @@
       </c>
       <c r="K666" s="2"/>
       <c r="L666" s="4"/>
-      <c r="M666" s="2" t="s">
+      <c r="M666" s="3" t="s">
         <v>141</v>
       </c>
       <c r="N666" s="2" t="s">
@@ -41489,7 +41489,7 @@
         <v>1168</v>
       </c>
       <c r="L669" s="4"/>
-      <c r="M669" s="2" t="s">
+      <c r="M669" s="3" t="s">
         <v>151</v>
       </c>
       <c r="N669" s="2" t="s">
@@ -41649,7 +41649,7 @@
       </c>
       <c r="K672" s="2"/>
       <c r="L672" s="4"/>
-      <c r="M672" s="2" t="s">
+      <c r="M672" s="3" t="s">
         <v>152</v>
       </c>
       <c r="N672" s="2" t="s">
@@ -41867,7 +41867,7 @@
         <v>1170</v>
       </c>
       <c r="L676" s="4"/>
-      <c r="M676" s="2" t="s">
+      <c r="M676" s="3" t="s">
         <v>106</v>
       </c>
       <c r="N676" s="2" t="s">
@@ -42279,7 +42279,7 @@
         <v>1171</v>
       </c>
       <c r="L684" s="4"/>
-      <c r="M684" s="2" t="s">
+      <c r="M684" s="3" t="s">
         <v>102</v>
       </c>
       <c r="N684" s="2" t="s">
@@ -42479,7 +42479,7 @@
         <v>1140</v>
       </c>
       <c r="L688" s="4"/>
-      <c r="M688" s="2" t="s">
+      <c r="M688" s="3" t="s">
         <v>103</v>
       </c>
       <c r="N688" s="2" t="s">
@@ -42679,7 +42679,7 @@
         <v>1172</v>
       </c>
       <c r="L692" s="4"/>
-      <c r="M692" s="2" t="s">
+      <c r="M692" s="3" t="s">
         <v>153</v>
       </c>
       <c r="N692" s="2" t="s">
@@ -43037,7 +43037,7 @@
         <v>1173</v>
       </c>
       <c r="L699" s="4"/>
-      <c r="M699" s="2" t="s">
+      <c r="M699" s="3" t="s">
         <v>154</v>
       </c>
       <c r="N699" s="2" t="s">
@@ -43237,7 +43237,7 @@
         <v>1174</v>
       </c>
       <c r="L703" s="4"/>
-      <c r="M703" s="2" t="s">
+      <c r="M703" s="3" t="s">
         <v>155</v>
       </c>
       <c r="N703" s="2" t="s">
@@ -43385,7 +43385,7 @@
       </c>
       <c r="K706" s="2"/>
       <c r="L706" s="4"/>
-      <c r="M706" s="2" t="s">
+      <c r="M706" s="3" t="s">
         <v>150</v>
       </c>
       <c r="N706" s="2" t="s">
@@ -43539,7 +43539,7 @@
       </c>
       <c r="K709" s="2"/>
       <c r="L709" s="4"/>
-      <c r="M709" s="2" t="s">
+      <c r="M709" s="3" t="s">
         <v>156</v>
       </c>
       <c r="N709" s="2" t="s">
@@ -43687,7 +43687,7 @@
         <v>1175</v>
       </c>
       <c r="L712" s="4"/>
-      <c r="M712" s="2" t="s">
+      <c r="M712" s="3" t="s">
         <v>144</v>
       </c>
       <c r="N712" s="2" t="s">
@@ -43847,7 +43847,7 @@
       </c>
       <c r="K715" s="2"/>
       <c r="L715" s="4"/>
-      <c r="M715" s="2" t="s">
+      <c r="M715" s="3" t="s">
         <v>157</v>
       </c>
       <c r="N715" s="2" t="s">
@@ -44169,7 +44169,7 @@
         <v>1177</v>
       </c>
       <c r="L721" s="4"/>
-      <c r="M721" s="2" t="s">
+      <c r="M721" s="3" t="s">
         <v>158</v>
       </c>
       <c r="N721" s="2" t="s">
@@ -44317,7 +44317,7 @@
       </c>
       <c r="K724" s="2"/>
       <c r="L724" s="4"/>
-      <c r="M724" s="2" t="s">
+      <c r="M724" s="3" t="s">
         <v>150</v>
       </c>
       <c r="N724" s="2" t="s">
@@ -44471,7 +44471,7 @@
       </c>
       <c r="K727" s="2"/>
       <c r="L727" s="4"/>
-      <c r="M727" s="2" t="s">
+      <c r="M727" s="3" t="s">
         <v>159</v>
       </c>
       <c r="N727" s="2" t="s">
@@ -44617,7 +44617,7 @@
       </c>
       <c r="K730" s="2"/>
       <c r="L730" s="4"/>
-      <c r="M730" s="2" t="s">
+      <c r="M730" s="3" t="s">
         <v>144</v>
       </c>
       <c r="N730" s="2" t="s">
@@ -44775,7 +44775,7 @@
       </c>
       <c r="K733" s="2"/>
       <c r="L733" s="4"/>
-      <c r="M733" s="2" t="s">
+      <c r="M733" s="3" t="s">
         <v>160</v>
       </c>
       <c r="N733" s="2" t="s">
@@ -45147,7 +45147,7 @@
         <v>1174</v>
       </c>
       <c r="L740" s="4"/>
-      <c r="M740" s="2" t="s">
+      <c r="M740" s="3" t="s">
         <v>161</v>
       </c>
       <c r="N740" s="2" t="s">
@@ -45295,7 +45295,7 @@
       </c>
       <c r="K743" s="2"/>
       <c r="L743" s="4"/>
-      <c r="M743" s="2" t="s">
+      <c r="M743" s="3" t="s">
         <v>150</v>
       </c>
       <c r="N743" s="2" t="s">
@@ -45449,7 +45449,7 @@
       </c>
       <c r="K746" s="2"/>
       <c r="L746" s="4"/>
-      <c r="M746" s="2" t="s">
+      <c r="M746" s="3" t="s">
         <v>162</v>
       </c>
       <c r="N746" s="2" t="s">
@@ -45595,7 +45595,7 @@
       </c>
       <c r="K749" s="2"/>
       <c r="L749" s="4"/>
-      <c r="M749" s="2" t="s">
+      <c r="M749" s="3" t="s">
         <v>144</v>
       </c>
       <c r="N749" s="2" t="s">
@@ -45753,7 +45753,7 @@
       </c>
       <c r="K752" s="2"/>
       <c r="L752" s="4"/>
-      <c r="M752" s="2" t="s">
+      <c r="M752" s="3" t="s">
         <v>163</v>
       </c>
       <c r="N752" s="2" t="s">
@@ -45909,7 +45909,7 @@
         <v>1174</v>
       </c>
       <c r="L755" s="4"/>
-      <c r="M755" s="2" t="s">
+      <c r="M755" s="3" t="s">
         <v>164</v>
       </c>
       <c r="N755" s="2" t="s">
@@ -46199,7 +46199,7 @@
       </c>
       <c r="K761" s="2"/>
       <c r="L761" s="4"/>
-      <c r="M761" s="2" t="s">
+      <c r="M761" s="3" t="s">
         <v>144</v>
       </c>
       <c r="N761" s="2" t="s">
@@ -46359,7 +46359,7 @@
         <v>1179</v>
       </c>
       <c r="L764" s="4"/>
-      <c r="M764" s="2" t="s">
+      <c r="M764" s="3" t="s">
         <v>165</v>
       </c>
       <c r="N764" s="2" t="s">
@@ -46507,7 +46507,7 @@
       </c>
       <c r="K767" s="2"/>
       <c r="L767" s="4"/>
-      <c r="M767" s="2" t="s">
+      <c r="M767" s="3" t="s">
         <v>142</v>
       </c>
       <c r="N767" s="2" t="s">
@@ -46665,7 +46665,7 @@
       </c>
       <c r="K770" s="2"/>
       <c r="L770" s="4"/>
-      <c r="M770" s="2" t="s">
+      <c r="M770" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N770" s="2" t="s">
@@ -46823,7 +46823,7 @@
       </c>
       <c r="K773" s="2"/>
       <c r="L773" s="4"/>
-      <c r="M773" s="2" t="s">
+      <c r="M773" s="3" t="s">
         <v>166</v>
       </c>
       <c r="N773" s="2" t="s">
@@ -46969,7 +46969,7 @@
       </c>
       <c r="K776" s="2"/>
       <c r="L776" s="4"/>
-      <c r="M776" s="2" t="s">
+      <c r="M776" s="3" t="s">
         <v>144</v>
       </c>
       <c r="N776" s="2" t="s">
@@ -47129,7 +47129,7 @@
         <v>1180</v>
       </c>
       <c r="L779" s="4"/>
-      <c r="M779" s="2" t="s">
+      <c r="M779" s="3" t="s">
         <v>167</v>
       </c>
       <c r="N779" s="2" t="s">
@@ -47277,7 +47277,7 @@
       </c>
       <c r="K782" s="2"/>
       <c r="L782" s="4"/>
-      <c r="M782" s="2" t="s">
+      <c r="M782" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N782" s="2" t="s">
@@ -47435,7 +47435,7 @@
       </c>
       <c r="K785" s="2"/>
       <c r="L785" s="4"/>
-      <c r="M785" s="2" t="s">
+      <c r="M785" s="3" t="s">
         <v>168</v>
       </c>
       <c r="N785" s="2" t="s">
@@ -47795,7 +47795,7 @@
         <v>1182</v>
       </c>
       <c r="L792" s="4"/>
-      <c r="M792" s="2" t="s">
+      <c r="M792" s="3" t="s">
         <v>169</v>
       </c>
       <c r="N792" s="2" t="s">
@@ -47943,7 +47943,7 @@
       </c>
       <c r="K795" s="2"/>
       <c r="L795" s="4"/>
-      <c r="M795" s="2" t="s">
+      <c r="M795" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N795" s="2" t="s">
@@ -48101,7 +48101,7 @@
       </c>
       <c r="K798" s="2"/>
       <c r="L798" s="4"/>
-      <c r="M798" s="2" t="s">
+      <c r="M798" s="3" t="s">
         <v>170</v>
       </c>
       <c r="N798" s="2" t="s">
@@ -48343,7 +48343,7 @@
       </c>
       <c r="K803" s="2"/>
       <c r="L803" s="4"/>
-      <c r="M803" s="2" t="s">
+      <c r="M803" s="3" t="s">
         <v>168</v>
       </c>
       <c r="N803" s="2" t="s">
@@ -48697,7 +48697,7 @@
       </c>
       <c r="K810" s="2"/>
       <c r="L810" s="4"/>
-      <c r="M810" s="2" t="s">
+      <c r="M810" s="3" t="s">
         <v>171</v>
       </c>
       <c r="N810" s="2" t="s">
@@ -49119,7 +49119,7 @@
         <v>1184</v>
       </c>
       <c r="L818" s="4"/>
-      <c r="M818" s="2" t="s">
+      <c r="M818" s="3" t="s">
         <v>172</v>
       </c>
       <c r="N818" s="2" t="s">
@@ -49435,7 +49435,7 @@
         <v>1185</v>
       </c>
       <c r="L824" s="4"/>
-      <c r="M824" s="2" t="s">
+      <c r="M824" s="3" t="s">
         <v>173</v>
       </c>
       <c r="N824" s="2" t="s">
@@ -49595,7 +49595,7 @@
       </c>
       <c r="K827" s="2"/>
       <c r="L827" s="4"/>
-      <c r="M827" s="2" t="s">
+      <c r="M827" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N827" s="2" t="s">
@@ -49755,7 +49755,7 @@
         <v>1186</v>
       </c>
       <c r="L830" s="4"/>
-      <c r="M830" s="2" t="s">
+      <c r="M830" s="3" t="s">
         <v>174</v>
       </c>
       <c r="N830" s="2" t="s">
@@ -50289,7 +50289,7 @@
       </c>
       <c r="K840" s="2"/>
       <c r="L840" s="4"/>
-      <c r="M840" s="2" t="s">
+      <c r="M840" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N840" s="2" t="s">
@@ -50449,7 +50449,7 @@
         <v>1188</v>
       </c>
       <c r="L843" s="4"/>
-      <c r="M843" s="2" t="s">
+      <c r="M843" s="3" t="s">
         <v>175</v>
       </c>
       <c r="N843" s="2" t="s">
@@ -50869,7 +50869,7 @@
         <v>1190</v>
       </c>
       <c r="L851" s="4"/>
-      <c r="M851" s="2" t="s">
+      <c r="M851" s="3" t="s">
         <v>176</v>
       </c>
       <c r="N851" s="2" t="s">
@@ -51403,7 +51403,7 @@
       </c>
       <c r="K861" s="2"/>
       <c r="L861" s="4"/>
-      <c r="M861" s="2" t="s">
+      <c r="M861" s="3" t="s">
         <v>141</v>
       </c>
       <c r="N861" s="2" t="s">
@@ -51563,7 +51563,7 @@
       </c>
       <c r="K864" s="2"/>
       <c r="L864" s="4"/>
-      <c r="M864" s="2" t="s">
+      <c r="M864" s="3" t="s">
         <v>177</v>
       </c>
       <c r="N864" s="2"/>
